--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
   <si>
     <t>枚举code</t>
   </si>
@@ -360,7 +360,26 @@
     <t>结课</t>
   </si>
   <si>
-    <t>·</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.2</t>
+    </r>
   </si>
   <si>
     <t>课程查询</t>
@@ -382,6 +401,9 @@
   </si>
   <si>
     <t>如果有缴费，就要退费了</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
   <si>
     <t>报名状态查询</t>
@@ -471,18 +493,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,9 +522,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,32 +588,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,48 +603,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,10 +626,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,22 +642,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,31 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +693,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +723,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,13 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +777,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,25 +813,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,31 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,6 +1021,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1038,30 +1110,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1070,283 +1118,196 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1355,7 +1316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1698,7 +1659,7 @@
   <sheetPr/>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1711,189 +1672,189 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.55" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="36"/>
+      <c r="A3" s="18"/>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="14.55" spans="1:4">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21">
         <v>3</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36"/>
+      <c r="A6" s="18"/>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36"/>
+      <c r="A7" s="18"/>
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="14.55" spans="1:4">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21">
         <v>4</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="36"/>
+      <c r="A10" s="18"/>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="14.55" spans="1:4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21">
         <v>3</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="36"/>
+      <c r="A13" s="18"/>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="36"/>
+      <c r="A14" s="18"/>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="36"/>
+      <c r="A15" s="18"/>
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="36"/>
+      <c r="A16" s="18"/>
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="14.55" spans="1:4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21">
         <v>6</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
@@ -1902,328 +1863,328 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="36"/>
+      <c r="A19" s="18"/>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="36"/>
+      <c r="A20" s="18"/>
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="14.55" spans="1:4">
-      <c r="A21" s="36"/>
+      <c r="A21" s="18"/>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="36"/>
+      <c r="A23" s="18"/>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="36"/>
+      <c r="A24" s="18"/>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="36"/>
+      <c r="A25" s="18"/>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="36"/>
+      <c r="A26" s="18"/>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="36"/>
+      <c r="A27" s="18"/>
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="36"/>
+      <c r="A28" s="18"/>
       <c r="C28">
         <v>7</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="36"/>
+      <c r="A29" s="18"/>
       <c r="C29">
         <v>8</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="36"/>
+      <c r="A30" s="18"/>
       <c r="C30">
         <v>9</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="36"/>
+      <c r="A31" s="18"/>
       <c r="C31">
         <v>11</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
+      <c r="A32" s="18"/>
       <c r="C32">
         <v>12</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" ht="14.55" spans="1:4">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21">
         <v>13</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="16">
         <v>0</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36"/>
+      <c r="A35" s="18"/>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="36"/>
+      <c r="A36" s="18"/>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" ht="14.55" spans="1:4">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21">
         <v>3</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="16">
         <v>1</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="36"/>
+      <c r="A39" s="18"/>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="36"/>
+      <c r="A40" s="18"/>
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" ht="14.55" spans="1:4">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21">
         <v>4</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="16">
         <v>1</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="36"/>
+      <c r="A43" s="18"/>
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="36"/>
+      <c r="A44" s="18"/>
       <c r="C44">
         <v>3</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" ht="14.55" spans="1:4">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21">
         <v>4</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="16">
         <v>1</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="36"/>
+      <c r="A47" s="18"/>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="36"/>
+      <c r="A48" s="18"/>
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="36"/>
+      <c r="A49" s="18"/>
       <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="50" ht="14.55" spans="1:4">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21">
         <v>5</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="22" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2238,8 +2199,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2340,13 +2301,13 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2355,56 +2316,68 @@
       <c r="E7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G7" s="4">
         <v>0.5</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G8" s="4">
         <v>0.5</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G9" s="4">
         <v>0.3</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -2413,56 +2386,68 @@
       <c r="E10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G10" s="4">
         <v>0.5</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G11" s="4">
         <v>0.3</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G12" s="4">
         <v>0.3</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2471,70 +2456,86 @@
       <c r="E13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="4">
         <v>0.5</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="9"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G14" s="4">
         <v>0.3</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="9"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G15" s="4">
         <v>0.2</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="9"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G16" s="4">
         <v>0.3</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="9"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>105</v>
       </c>
@@ -2547,103 +2548,125 @@
       <c r="E17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="4">
         <v>0.5</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G18" s="4">
         <v>0.3</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="9"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G19" s="4">
         <v>0.2</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>0.2</v>
+      </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="9"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G20" s="4">
         <v>0.2</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="9"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="9"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G21" s="4">
         <v>0.1</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4">
+        <v>0.2</v>
+      </c>
       <c r="I21" s="4"/>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="9"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G22" s="4">
         <v>0.1</v>
       </c>
@@ -2651,32 +2674,36 @@
         <v>114</v>
       </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="9"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G23" s="4">
         <v>0.5</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="9"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
         <v>117</v>
       </c>
@@ -2689,271 +2716,327 @@
       <c r="E24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G24" s="4">
         <v>0.5</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="9"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G25" s="4">
         <v>0.3</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="9"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G26" s="4">
         <v>0.2</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="9"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="21" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G27" s="4">
         <v>0.3</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="9"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G28" s="4">
         <v>0.5</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>0.2</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="9"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G29" s="4">
         <v>0.5</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>0.2</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9" t="s">
-        <v>125</v>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="29"/>
+      <c r="F30" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23">
+      <c r="F31" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="7">
         <v>0.2</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="30"/>
+      <c r="H31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="30"/>
+      <c r="F32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23">
+      <c r="F33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="7">
         <v>0.2</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="31"/>
+      <c r="H33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="12" t="s">
-        <v>128</v>
+      <c r="F34" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23">
+      <c r="F35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G35" s="7">
         <v>0.2</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="14"/>
+      <c r="H35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="14"/>
+      <c r="F36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="9"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="16"/>
+      <c r="F37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="9"/>
-      <c r="B38" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="5" t="s">
         <v>130</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>97</v>
@@ -2961,289 +3044,361 @@
       <c r="E38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G38" s="4">
         <v>0.3</v>
       </c>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="13"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="9"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4">
+        <v>0.1</v>
+      </c>
       <c r="G39" s="4">
         <v>0.3</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4">
+        <v>0.2</v>
+      </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="15"/>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="9"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G40" s="4">
         <v>0.3</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="4">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="15"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="9"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="4">
         <v>0.3</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4">
+        <v>0.3</v>
+      </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="17"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="9"/>
-      <c r="B42" s="13" t="s">
-        <v>131</v>
+      <c r="A42" s="7"/>
+      <c r="B42" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="26" t="s">
-        <v>132</v>
+      <c r="D42" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G42" s="4">
         <v>0.5</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4">
+        <v>2</v>
+      </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="26" t="s">
-        <v>133</v>
+      <c r="J42" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="9"/>
-      <c r="B43" s="15"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="26" t="s">
-        <v>134</v>
+      <c r="D43" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="4">
         <v>0.5</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4">
+        <v>2</v>
+      </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="26"/>
+      <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="9"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G44" s="4">
         <v>0.8</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4">
+        <v>2</v>
+      </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="26" t="s">
-        <v>136</v>
+      <c r="J44" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="25"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G45" s="4">
         <v>1</v>
       </c>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4">
+        <v>2</v>
+      </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="26"/>
+      <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="4"/>
+      <c r="H46" s="4">
+        <v>2</v>
+      </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="26"/>
+      <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="9"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="27"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4">
+        <v>2</v>
+      </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="26"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="25"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="27"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="4"/>
+      <c r="H48" s="4">
+        <v>2</v>
+      </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="26"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21" t="s">
+      <c r="A49" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="21" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="28"/>
+      <c r="F49" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="21"/>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="21" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F50" s="28"/>
+      <c r="F50" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G50" s="4">
         <v>0.5</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="21"/>
+      <c r="H50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="21" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="28"/>
+      <c r="F51" s="4">
+        <v>0.3</v>
+      </c>
       <c r="G51" s="4">
         <v>1</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="21"/>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="21" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="28"/>
+      <c r="F52" s="4">
+        <v>0.2</v>
+      </c>
       <c r="G52" s="4">
         <v>0.5</v>
       </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
+      <c r="F53" s="1">
+        <f>SUM(F7:F52)</f>
+        <v>15</v>
+      </c>
       <c r="G53" s="1">
         <f>SUM(G7:G52)</f>
         <v>20.4</v>
+      </c>
+      <c r="H53" s="1">
+        <f>SUM(H7:H52)</f>
+        <v>31.9</v>
+      </c>
+      <c r="I53" s="1">
+        <f>F53+G53+H53</f>
+        <v>67.3</v>
       </c>
     </row>
   </sheetData>

--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="149">
   <si>
     <t>枚举code</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>四平路</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
   <si>
     <t>season</t>
@@ -492,10 +489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -523,14 +520,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,98 +541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -650,6 +556,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -659,10 +626,40 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,13 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,13 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,25 +708,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,37 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,55 +798,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,33 +1020,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,8 +1047,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,6 +1064,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,11 +1109,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,10 +1121,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,133 +1133,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1644,7 +1641,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1657,10 +1654,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1699,7 +1696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.55" spans="1:4">
       <c r="A3" s="18"/>
       <c r="C3">
         <v>2</v>
@@ -1708,109 +1705,108 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.55" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21">
-        <v>3</v>
-      </c>
-      <c r="D4" s="22" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="18"/>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="18"/>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="18"/>
-      <c r="C7">
+    <row r="7" ht="14.55" spans="1:4">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21">
+        <v>4</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18"/>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="14.55" spans="1:4">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21">
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="14.55" spans="1:4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21">
-        <v>4</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="D10" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="18"/>
-      <c r="C10">
+      <c r="D11" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18"/>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="14.55" spans="1:4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21">
-        <v>3</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="18"/>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>23</v>
@@ -1819,7 +1815,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="18"/>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>24</v>
@@ -1828,40 +1824,40 @@
     <row r="15" spans="1:4">
       <c r="A15" s="18"/>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="18"/>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16" s="19" t="s">
+    <row r="16" ht="14.55" spans="1:4">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21">
+        <v>6</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="14.55" spans="1:4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21">
-        <v>6</v>
-      </c>
-      <c r="D17" s="22" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="18"/>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>30</v>
@@ -1870,48 +1866,48 @@
     <row r="19" spans="1:4">
       <c r="A19" s="18"/>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="14.55" spans="1:4">
       <c r="A20" s="18"/>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="14.55" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" s="19" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="B21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="18"/>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18"/>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>37</v>
@@ -1920,7 +1916,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="18"/>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>38</v>
@@ -1929,7 +1925,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="18"/>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>39</v>
@@ -1938,7 +1934,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="18"/>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>40</v>
@@ -1947,7 +1943,7 @@
     <row r="27" spans="1:4">
       <c r="A27" s="18"/>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>41</v>
@@ -1956,7 +1952,7 @@
     <row r="28" spans="1:4">
       <c r="A28" s="18"/>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>42</v>
@@ -1965,7 +1961,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="18"/>
       <c r="C29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>43</v>
@@ -1974,7 +1970,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="18"/>
       <c r="C30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>44</v>
@@ -1983,178 +1979,178 @@
     <row r="31" spans="1:4">
       <c r="A31" s="18"/>
       <c r="C31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="18"/>
-      <c r="C32">
-        <v>12</v>
-      </c>
-      <c r="D32" s="19" t="s">
+    <row r="32" ht="14.55" spans="1:4">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21">
+        <v>13</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" ht="14.55" spans="1:4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21">
-        <v>13</v>
-      </c>
-      <c r="D33" s="22" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="15" t="s">
         <v>47</v>
       </c>
+      <c r="B33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="A34" s="18"/>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18"/>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="18"/>
-      <c r="C36">
+    <row r="36" ht="14.55" spans="1:4">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21">
+        <v>3</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="18"/>
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" ht="14.55" spans="1:4">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21">
-        <v>3</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="16">
-        <v>1</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="23" t="s">
+      <c r="D38" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="18"/>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" s="19" t="s">
+    <row r="40" ht="14.55" spans="1:4">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21">
+        <v>4</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" ht="14.55" spans="1:4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21">
-        <v>4</v>
-      </c>
-      <c r="D41" s="22" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="15" t="s">
         <v>60</v>
       </c>
+      <c r="B41" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="16">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="A42" s="18"/>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="18"/>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="18"/>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" s="19" t="s">
+    <row r="44" ht="14.55" spans="1:4">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21">
+        <v>4</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" ht="14.55" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21">
-        <v>4</v>
-      </c>
-      <c r="D45" s="22" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="B45" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="16">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="16">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="A46" s="18"/>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="18"/>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>70</v>
@@ -2163,29 +2159,20 @@
     <row r="48" spans="1:4">
       <c r="A48" s="18"/>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="18"/>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49" s="19" t="s">
+    <row r="49" ht="14.55" spans="1:4">
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21">
+        <v>5</v>
+      </c>
+      <c r="D49" s="22" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="50" ht="14.55" spans="1:4">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21">
-        <v>5</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2186,7 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -2218,18 +2205,18 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C2" s="3">
         <v>0.2</v>
@@ -2237,10 +2224,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="3">
         <v>0.2</v>
@@ -2248,10 +2235,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C4" s="3">
         <v>0.3</v>
@@ -2259,10 +2246,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C5" s="3">
         <v>0.3</v>
@@ -2270,51 +2257,51 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4">
         <v>0.5</v>
@@ -2327,7 +2314,7 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2335,10 +2322,10 @@
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4">
         <v>0.5</v>
@@ -2357,10 +2344,10 @@
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="4">
         <v>0.2</v>
@@ -2378,13 +2365,13 @@
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="4">
         <v>0.5</v>
@@ -2403,10 +2390,10 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="4">
         <v>0.2</v>
@@ -2425,10 +2412,10 @@
       <c r="B12" s="4"/>
       <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4">
         <v>0.3</v>
@@ -2445,16 +2432,16 @@
     <row r="13" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4">
         <v>0.5</v>
@@ -2473,10 +2460,10 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="4">
         <v>0.5</v>
@@ -2495,10 +2482,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="4">
         <v>0.2</v>
@@ -2517,10 +2504,10 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="4">
         <v>0.3</v>
@@ -2537,16 +2524,16 @@
     <row r="17" spans="1:10">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="4">
         <v>0.5</v>
@@ -2559,7 +2546,7 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2567,10 +2554,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="4">
         <v>0.2</v>
@@ -2583,7 +2570,7 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2591,10 +2578,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="4">
         <v>0.1</v>
@@ -2613,10 +2600,10 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="4">
         <v>0.5</v>
@@ -2635,10 +2622,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="4">
         <v>0.1</v>
@@ -2651,7 +2638,7 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2659,10 +2646,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4">
         <v>0.1</v>
@@ -2671,11 +2658,11 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2683,10 +2670,10 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="4">
         <v>0.5</v>
@@ -2699,22 +2686,22 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4">
         <v>0.5</v>
@@ -2727,7 +2714,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2735,10 +2722,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4">
         <v>0.3</v>
@@ -2751,7 +2738,7 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2759,10 +2746,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="4">
         <v>0.1</v>
@@ -2775,7 +2762,7 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2783,13 +2770,13 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G27" s="4">
         <v>0.3</v>
@@ -2805,10 +2792,10 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="4">
         <v>0.3</v>
@@ -2821,7 +2808,7 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2829,10 +2816,10 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="4">
         <v>0.3</v>
@@ -2849,16 +2836,16 @@
     <row r="30" spans="1:10">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4">
         <v>0.3</v>
@@ -2877,10 +2864,10 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="4">
         <v>0.3</v>
@@ -2899,10 +2886,10 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="4">
         <v>0.2</v>
@@ -2921,10 +2908,10 @@
       <c r="B33" s="7"/>
       <c r="C33" s="9"/>
       <c r="D33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="4">
         <v>0.1</v>
@@ -2942,13 +2929,13 @@
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="4">
         <v>0.3</v>
@@ -2961,7 +2948,7 @@
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2969,10 +2956,10 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="4">
         <v>0.3</v>
@@ -2991,10 +2978,10 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="4">
         <v>0.2</v>
@@ -3013,10 +3000,10 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="4">
         <v>0.1</v>
@@ -3033,16 +3020,16 @@
     <row r="38" spans="1:10">
       <c r="A38" s="7"/>
       <c r="B38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" s="4">
         <v>0.5</v>
@@ -3061,10 +3048,10 @@
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="4">
         <v>0.1</v>
@@ -3083,10 +3070,10 @@
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="4">
         <v>0.2</v>
@@ -3105,10 +3092,10 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="4">
         <v>0.5</v>
@@ -3125,14 +3112,14 @@
     <row r="42" spans="1:10">
       <c r="A42" s="7"/>
       <c r="B42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42" s="4">
         <v>0.5</v>
@@ -3145,7 +3132,7 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3153,10 +3140,10 @@
       <c r="B43" s="7"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43" s="4">
         <v>0.5</v>
@@ -3175,10 +3162,10 @@
       <c r="B44" s="7"/>
       <c r="C44" s="10"/>
       <c r="D44" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="4">
         <v>0.5</v>
@@ -3191,7 +3178,7 @@
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3199,10 +3186,10 @@
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="4">
         <v>0.5</v>
@@ -3218,15 +3205,15 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="4">
         <v>0.5</v>
@@ -3245,10 +3232,10 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" s="4">
         <v>0.5</v>
@@ -3267,10 +3254,10 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F48" s="4">
         <v>0.5</v>
@@ -3286,17 +3273,17 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F49" s="4">
         <v>0.5</v>
@@ -3315,10 +3302,10 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F50" s="4">
         <v>0.2</v>
@@ -3336,13 +3323,13 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="4">
         <v>0.3</v>
@@ -3361,10 +3348,10 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F52" s="4">
         <v>0.2</v>
@@ -3380,7 +3367,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>

--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="28128" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="枚举" sheetId="2" r:id="rId2"/>
     <sheet name="功能点" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
   <si>
     <t>枚举code</t>
   </si>
@@ -483,6 +484,9 @@
   <si>
     <t>合计</t>
   </si>
+  <si>
+    <t>续报</t>
+  </si>
 </sst>
 </file>
 
@@ -491,8 +495,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -526,9 +530,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,10 +567,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,28 +635,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -594,8 +643,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,52 +660,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -663,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,7 +676,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +748,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,157 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +870,75 @@
   <borders count="23">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -942,55 +1021,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -998,33 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,11 +1058,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,41 +1115,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,10 +1131,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,138 +1143,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1274,44 +1298,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1656,8 +1673,8 @@
   <sheetPr/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1669,179 +1686,179 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.55" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.55" spans="1:4">
-      <c r="A3" s="18"/>
+      <c r="A3" s="7"/>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
+      <c r="A5" s="7"/>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18"/>
+      <c r="A6" s="7"/>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="14.55" spans="1:4">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21">
+      <c r="A7" s="29"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="18"/>
+      <c r="A9" s="7"/>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="14.55" spans="1:4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21">
+      <c r="A10" s="29"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="18"/>
+      <c r="A12" s="7"/>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="18"/>
+      <c r="A13" s="7"/>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="18"/>
+      <c r="A14" s="7"/>
       <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="18"/>
+      <c r="A15" s="7"/>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" ht="14.55" spans="1:4">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21">
+      <c r="A16" s="29"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
@@ -1850,328 +1867,328 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
+      <c r="A18" s="7"/>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
+      <c r="A19" s="7"/>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" ht="14.55" spans="1:4">
-      <c r="A20" s="18"/>
+      <c r="A20" s="7"/>
       <c r="C20">
         <v>4</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
+      <c r="A22" s="7"/>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
+      <c r="A23" s="7"/>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
+      <c r="A24" s="7"/>
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
+      <c r="A25" s="7"/>
       <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18"/>
+      <c r="A26" s="7"/>
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
+      <c r="A27" s="7"/>
       <c r="C27">
         <v>7</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
+      <c r="A28" s="7"/>
       <c r="C28">
         <v>8</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
+      <c r="A29" s="7"/>
       <c r="C29">
         <v>9</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18"/>
+      <c r="A30" s="7"/>
       <c r="C30">
         <v>11</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18"/>
+      <c r="A31" s="7"/>
       <c r="C31">
         <v>12</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" ht="14.55" spans="1:4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21">
+      <c r="A32" s="29"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5">
         <v>13</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18"/>
+      <c r="A34" s="7"/>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18"/>
+      <c r="A35" s="7"/>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" ht="14.55" spans="1:4">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21">
+      <c r="A36" s="29"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
         <v>3</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18"/>
+      <c r="A38" s="7"/>
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="18"/>
+      <c r="A39" s="7"/>
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" ht="14.55" spans="1:4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21">
+      <c r="A40" s="29"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5">
         <v>4</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="18"/>
+      <c r="A42" s="7"/>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="18"/>
+      <c r="A43" s="7"/>
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="44" ht="14.55" spans="1:4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21">
+      <c r="A44" s="29"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5">
         <v>4</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="18"/>
+      <c r="A46" s="7"/>
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="18"/>
+      <c r="A47" s="7"/>
       <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18"/>
+      <c r="A48" s="7"/>
       <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" ht="14.55" spans="1:4">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21">
+      <c r="A49" s="29"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5">
         <v>5</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2192,1198 +2209,1198 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.8888888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="2" customWidth="1"/>
-    <col min="6" max="8" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="74.8888888888889" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="11.8888888888889" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.8796296296296" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.8888888888889" style="16" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="16" customWidth="1"/>
+    <col min="6" max="8" width="11.8888888888889" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.1111111111111" style="15" customWidth="1"/>
+    <col min="10" max="10" width="74.8888888888889" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="17">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="17">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="17">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="17">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="18" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
+      <c r="F7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="18">
         <v>0.3</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="18">
         <v>0.2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="18">
         <v>0.3</v>
       </c>
-      <c r="H9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="F10" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="18">
         <v>0.2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="18">
         <v>0.3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="18">
         <v>0.3</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="18">
         <v>0.3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="18">
         <v>0.3</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="18">
         <v>0.3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="18">
         <v>0.3</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="18">
         <v>0.2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="18">
         <v>0.2</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="18">
         <v>0.3</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="18">
         <v>0.3</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="H16" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="F17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="18">
         <v>1</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="18"/>
+      <c r="J17" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="18">
         <v>0.2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="18">
         <v>0.3</v>
       </c>
-      <c r="H18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="7" t="s">
+      <c r="H18" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="18">
         <v>0.1</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="18">
         <v>0.2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="18">
         <v>0.2</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="7"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="18">
         <v>0.2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="18">
         <v>0.3</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="7"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="18">
         <v>0.1</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="18">
         <v>0.1</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="18">
         <v>0.2</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="7" t="s">
+      <c r="I21" s="18"/>
+      <c r="J21" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="18">
         <v>0.1</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="18">
         <v>0.1</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="7" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="F23" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="18">
         <v>0.3</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="9" t="s">
+      <c r="I23" s="18"/>
+      <c r="J23" s="23" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4" t="s">
+      <c r="F24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="18">
         <v>0.3</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="18">
         <v>0.3</v>
       </c>
-      <c r="H25" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
+      <c r="H25" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="18">
         <v>0.1</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="18">
         <v>0.2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="18">
         <v>0.3</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4" t="s">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="18">
         <v>0.3</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="18">
         <v>0.3</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="4" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="18">
         <v>0.3</v>
       </c>
-      <c r="G28" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G28" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="18">
         <v>0.2</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="2" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="18">
         <v>0.3</v>
       </c>
-      <c r="G29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="18">
         <v>0.2</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="18">
         <v>0.3</v>
       </c>
-      <c r="G30" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="18">
         <v>1</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="11"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="18">
         <v>0.3</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="21">
         <v>0.2</v>
       </c>
-      <c r="H31" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="12"/>
+      <c r="H31" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="18">
         <v>0.2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="21">
         <v>0.3</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="18">
         <v>0.3</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="12"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="4" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="18">
         <v>0.1</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="21">
         <v>0.2</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="18">
         <v>0.2</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="18">
         <v>0.3</v>
       </c>
-      <c r="G34" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="18">
         <v>1</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="I34" s="19"/>
+      <c r="J34" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="4" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="18">
         <v>0.3</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="21">
         <v>0.2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="18">
         <v>0.2</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="4" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="18">
         <v>0.2</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="21">
         <v>0.3</v>
       </c>
-      <c r="H36" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="H36" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="4" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="18">
         <v>0.1</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="23">
         <v>0.3</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="18">
         <v>0.3</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="7"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="18">
         <v>0.3</v>
       </c>
-      <c r="H38" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
+      <c r="H38" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="4" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="18">
         <v>0.1</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="18">
         <v>0.3</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="18">
         <v>0.2</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="7"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="4" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="18">
         <v>0.2</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="18">
         <v>0.3</v>
       </c>
-      <c r="H40" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="7"/>
+      <c r="H40" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="18"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="4" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="F41" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="18">
         <v>0.3</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="18">
         <v>0.3</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="7"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="F42" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="18">
         <v>2</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4" t="s">
+      <c r="I42" s="18"/>
+      <c r="J42" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="F43" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="18">
         <v>2</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="4" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="4">
+      <c r="F44" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="18">
         <v>0.8</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="18">
         <v>2</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4" t="s">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="4" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="F45" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="18">
         <v>1</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="18">
         <v>2</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="4" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="F46" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="18">
         <v>1</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="18">
         <v>2</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="7"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="2" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F47" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="18">
         <v>1</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="18">
         <v>2</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="4" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="F48" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="18">
         <v>1</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="18">
         <v>2</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F49" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="F49" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="18">
         <v>1</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="18">
         <v>1</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="4"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="18">
         <v>0.2</v>
       </c>
-      <c r="G50" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="4"/>
+      <c r="G50" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="24"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="18">
         <v>0.3</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="18">
         <v>1</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="18">
         <v>1</v>
       </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="4"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="18">
         <v>0.2</v>
       </c>
-      <c r="G52" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="G52" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="18">
         <v>1</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="4"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="F53" s="1">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="F53" s="15">
         <f>SUM(F7:F52)</f>
         <v>15</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="15">
         <f>SUM(G7:G52)</f>
         <v>20.4</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="15">
         <f>SUM(H7:H52)</f>
         <v>31.9</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="15">
         <f>F53+G53+H53</f>
         <v>67.3</v>
       </c>
@@ -3418,4 +3435,670 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="18.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.55" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.55" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="14.55" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="14.55" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.55" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="14.55" spans="1:4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="14.55" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="14.55" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="14.55" spans="1:4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="14.55" spans="1:4">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="14.55" spans="1:4">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="14.55" spans="1:4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="14.55" spans="1:4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="14.55" spans="1:4">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="14.55" spans="1:4">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="14.55" spans="1:4">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="14.55" spans="1:4">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="14.55" spans="1:4">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" ht="14.55" spans="1:4">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" ht="14.55" spans="1:4">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" ht="14.55" spans="1:4">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" ht="14.55" spans="1:4">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" ht="14.55" spans="1:4">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" ht="14.55" spans="1:4">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" ht="14.55" spans="1:4">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" ht="14.55" spans="1:4">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" ht="14.55" spans="1:4">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" ht="14.55" spans="1:4">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <v>13</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" ht="14.55" spans="1:4">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" ht="14.55" spans="1:4">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" ht="14.55" spans="1:4">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" ht="14.55" spans="1:4">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" ht="14.55" spans="1:4">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="13">
+        <v>4</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="8">
+        <v>4</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" ht="14.55" spans="1:4">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="13">
+        <v>5</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" ht="14.55" spans="1:4">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" ht="14.55" spans="1:4">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="14.55" spans="1:4">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" ht="14.55" spans="1:4">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="13">
+        <v>3</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12660" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="150">
   <si>
     <t>枚举code</t>
   </si>
@@ -226,16 +226,10 @@
     <t>新报</t>
   </si>
   <si>
-    <t>续费</t>
-  </si>
-  <si>
-    <t>退费</t>
-  </si>
-  <si>
-    <t>冻结</t>
-  </si>
-  <si>
-    <t>无效</t>
+    <t>续报</t>
+  </si>
+  <si>
+    <t>退费中</t>
   </si>
   <si>
     <t>交付时间</t>
@@ -398,9 +392,15 @@
     <t>修改收费数额，折扣、修改学生课表</t>
   </si>
   <si>
+    <t>无效</t>
+  </si>
+  <si>
     <t>如果有缴费，就要退费了</t>
   </si>
   <si>
+    <t>冻结</t>
+  </si>
+  <si>
     <t>0.1</t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>合计</t>
   </si>
   <si>
-    <t>续报</t>
+    <t>退费</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -530,6 +530,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -538,7 +539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,14 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -567,9 +560,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,20 +596,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -619,6 +620,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -635,23 +644,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -660,7 +660,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -682,13 +682,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,91 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,7 +766,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,13 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,7 +832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,25 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,6 +1028,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1043,17 +1054,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,15 +1074,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,19 +1105,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,10 +1131,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1143,137 +1143,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1305,6 +1305,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,7 +1661,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1673,8 +1676,8 @@
   <sheetPr/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1686,16 +1689,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.55" spans="1:4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1755,7 +1758,7 @@
       </c>
     </row>
     <row r="7" ht="14.55" spans="1:4">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5">
         <v>4</v>
@@ -1788,7 +1791,7 @@
       </c>
     </row>
     <row r="10" ht="14.55" spans="1:4">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
         <v>3</v>
@@ -1848,7 +1851,7 @@
       </c>
     </row>
     <row r="16" ht="14.55" spans="1:4">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5">
         <v>6</v>
@@ -2003,7 +2006,7 @@
       </c>
     </row>
     <row r="32" ht="14.55" spans="1:4">
-      <c r="A32" s="29"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5">
         <v>13</v>
@@ -2045,7 +2048,7 @@
       </c>
     </row>
     <row r="36" ht="14.55" spans="1:4">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5">
         <v>3</v>
@@ -2067,7 +2070,7 @@
       <c r="D37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2090,7 +2093,7 @@
       </c>
     </row>
     <row r="40" ht="14.55" spans="1:4">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5">
         <v>4</v>
@@ -2132,7 +2135,7 @@
       </c>
     </row>
     <row r="44" ht="14.55" spans="1:4">
-      <c r="A44" s="29"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5">
         <v>4</v>
@@ -2179,18 +2182,14 @@
         <v>4</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="14.55" spans="1:4">
-      <c r="A49" s="29"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="5">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2203,8 +2202,8 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2222,18 +2221,18 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="17">
         <v>0.2</v>
@@ -2241,10 +2240,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="17">
         <v>0.2</v>
@@ -2252,10 +2251,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="17">
         <v>0.3</v>
@@ -2263,10 +2262,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="17">
         <v>0.3</v>
@@ -2274,56 +2273,56 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>96</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="18">
         <v>0.5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="21">
         <v>0.5</v>
       </c>
       <c r="H7" s="18">
@@ -2331,23 +2330,23 @@
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F8" s="18">
         <v>0.5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="21">
         <v>0.5</v>
       </c>
       <c r="H8" s="18">
@@ -2357,19 +2356,19 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="18">
         <v>0.2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="21">
         <v>0.3</v>
       </c>
       <c r="H9" s="18">
@@ -2379,16 +2378,16 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="22" t="s">
-        <v>100</v>
+      <c r="C10" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="18">
         <v>0.5</v>
@@ -2403,14 +2402,14 @@
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="18">
         <v>0.2</v>
@@ -2425,14 +2424,14 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="18">
         <v>0.3</v>
@@ -2447,18 +2446,18 @@
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="18">
         <v>0.5</v>
@@ -2473,14 +2472,14 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="18">
         <v>0.5</v>
@@ -2495,14 +2494,14 @@
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="18">
         <v>0.2</v>
@@ -2517,14 +2516,14 @@
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="18">
         <v>0.3</v>
@@ -2539,18 +2538,18 @@
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="18">
         <v>0.5</v>
@@ -2563,18 +2562,18 @@
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="18">
         <v>0.2</v>
@@ -2586,19 +2585,19 @@
         <v>0.5</v>
       </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="21" t="s">
-        <v>107</v>
+      <c r="J18" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="18">
         <v>0.1</v>
@@ -2610,17 +2609,17 @@
         <v>0.2</v>
       </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="21"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="18">
         <v>0.5</v>
@@ -2632,17 +2631,17 @@
         <v>0.3</v>
       </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="21"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="18">
         <v>0.1</v>
@@ -2654,19 +2653,19 @@
         <v>0.2</v>
       </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="21" t="s">
-        <v>111</v>
+      <c r="J21" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="18">
         <v>0.1</v>
@@ -2675,22 +2674,22 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="21" t="s">
-        <v>111</v>
+      <c r="J22" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="21"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F23" s="18">
         <v>0.5</v>
@@ -2702,23 +2701,23 @@
         <v>0.3</v>
       </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="22"/>
+      <c r="B24" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" s="18">
         <v>0.5</v>
@@ -2731,18 +2730,18 @@
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="18">
         <v>0.3</v>
@@ -2755,18 +2754,18 @@
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="16" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F26" s="18">
         <v>0.1</v>
@@ -2779,18 +2778,18 @@
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>121</v>
@@ -2805,14 +2804,14 @@
       <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="18" t="s">
         <v>122</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="18">
         <v>0.3</v>
@@ -2829,14 +2828,14 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="21"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" s="18">
         <v>0.3</v>
@@ -2851,18 +2850,18 @@
       <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" s="18">
         <v>0.3</v>
@@ -2874,85 +2873,85 @@
         <v>1</v>
       </c>
       <c r="I30" s="19"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="F31" s="18">
         <v>0.3</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="22">
         <v>0.2</v>
       </c>
       <c r="H31" s="18">
         <v>0.5</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="F32" s="18">
         <v>0.2</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="22">
         <v>0.3</v>
       </c>
       <c r="H32" s="18">
         <v>0.3</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>77</v>
+        <v>106</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="F33" s="18">
         <v>0.1</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="22">
         <v>0.2</v>
       </c>
       <c r="H33" s="18">
         <v>0.2</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="27"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" s="18">
         <v>0.3</v>
@@ -2969,73 +2968,73 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>77</v>
+        <v>106</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="F35" s="18">
         <v>0.3</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="22">
         <v>0.2</v>
       </c>
       <c r="H35" s="18">
         <v>0.2</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="F36" s="18">
         <v>0.2</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="22">
         <v>0.3</v>
       </c>
       <c r="H36" s="18">
         <v>0.5</v>
       </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="21"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="F37" s="18">
         <v>0.1</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="24">
         <v>0.3</v>
       </c>
       <c r="H37" s="18">
         <v>0.3</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="19" t="s">
         <v>129</v>
       </c>
@@ -3043,10 +3042,10 @@
         <v>130</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F38" s="18">
         <v>0.5</v>
@@ -3061,14 +3060,14 @@
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F39" s="18">
         <v>0.1</v>
@@ -3080,17 +3079,17 @@
         <v>0.2</v>
       </c>
       <c r="I39" s="18"/>
-      <c r="J39" s="21"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" s="18">
         <v>0.2</v>
@@ -3102,17 +3101,17 @@
         <v>0.5</v>
       </c>
       <c r="I40" s="18"/>
-      <c r="J40" s="21"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="21"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" s="18">
         <v>0.5</v>
@@ -3124,10 +3123,10 @@
         <v>0.3</v>
       </c>
       <c r="I41" s="18"/>
-      <c r="J41" s="23"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="19" t="s">
         <v>131</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>132</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" s="18">
         <v>0.5</v>
@@ -3153,14 +3152,14 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" s="18">
         <v>0.5</v>
@@ -3175,14 +3174,14 @@
       <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="18" t="s">
         <v>135</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F44" s="18">
         <v>0.5</v>
@@ -3199,14 +3198,14 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="18" t="s">
         <v>137</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F45" s="18">
         <v>0.5</v>
@@ -3224,13 +3223,13 @@
       <c r="A46" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="18" t="s">
         <v>139</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F46" s="18">
         <v>0.5</v>
@@ -3245,14 +3244,14 @@
       <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="16" t="s">
         <v>140</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F47" s="18">
         <v>0.5</v>
@@ -3267,14 +3266,14 @@
       <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="18">
         <v>0.5</v>
@@ -3300,7 +3299,7 @@
         <v>143</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F49" s="18">
         <v>0.5</v>
@@ -3311,7 +3310,7 @@
       <c r="H49" s="18">
         <v>1</v>
       </c>
-      <c r="I49" s="24"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:10">
@@ -3322,7 +3321,7 @@
         <v>144</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F50" s="18">
         <v>0.2</v>
@@ -3333,7 +3332,7 @@
       <c r="H50" s="18">
         <v>0.5</v>
       </c>
-      <c r="I50" s="24"/>
+      <c r="I50" s="25"/>
       <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:10">
@@ -3346,7 +3345,7 @@
         <v>146</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" s="18">
         <v>0.3</v>
@@ -3357,7 +3356,7 @@
       <c r="H51" s="18">
         <v>1</v>
       </c>
-      <c r="I51" s="24"/>
+      <c r="I51" s="25"/>
       <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:10">
@@ -3368,7 +3367,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F52" s="18">
         <v>0.2</v>
@@ -3379,7 +3378,7 @@
       <c r="H52" s="18">
         <v>1</v>
       </c>
-      <c r="I52" s="24"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:9">
@@ -3442,7 +3441,7 @@
   <sheetPr/>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -3941,6 +3940,7 @@
         <v>59</v>
       </c>
     </row>
+    <row r="39" ht="14.55"/>
     <row r="40" ht="14.55" spans="1:4">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
@@ -3953,7 +3953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" ht="14.55" spans="1:4">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
         <v>60</v>
@@ -3965,7 +3965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" ht="14.55" spans="1:4">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
         <v>60</v>
@@ -3977,7 +3977,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" ht="14.55" spans="1:4">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
         <v>60</v>
@@ -3989,7 +3989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="14.55" spans="1:4">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
         <v>66</v>
@@ -4001,7 +4001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" ht="14.55" spans="1:4">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
         <v>66</v>
@@ -4010,10 +4010,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" ht="14.55" spans="1:4">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
         <v>66</v>
@@ -4022,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" ht="14.55" spans="1:4">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
         <v>66</v>
@@ -4034,7 +4034,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" ht="14.55" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" ht="14.55" spans="1:4">

--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="13728" windowHeight="12395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
   <si>
     <t>枚举code</t>
   </si>
@@ -493,9 +493,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -524,14 +524,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -539,15 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +545,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,15 +559,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,6 +568,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,27 +605,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -644,9 +628,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,14 +664,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -682,19 +682,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,13 +808,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,139 +850,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,13 +1028,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,48 +1108,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,31 +1125,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1143,137 +1143,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1333,6 +1333,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1674,10 +1675,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2006,8 +2007,7 @@
       </c>
     </row>
     <row r="32" ht="14.55" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="31"/>
       <c r="C32" s="5">
         <v>13</v>
       </c>
@@ -2015,181 +2015,191 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+    <row r="33" ht="14.55" spans="1:4">
+      <c r="A33" s="30"/>
+      <c r="B33" s="5"/>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C34" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7"/>
       <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7"/>
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" ht="14.55" spans="1:4">
-      <c r="A36" s="30"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5">
+    <row r="37" ht="14.55" spans="1:4">
+      <c r="A37" s="30"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5">
         <v>3</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E38" s="32" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7"/>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="7"/>
       <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7"/>
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" ht="14.55" spans="1:4">
-      <c r="A40" s="30"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
+    <row r="41" ht="14.55" spans="1:4">
+      <c r="A41" s="30"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5">
         <v>4</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="7"/>
       <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7"/>
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" ht="14.55" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5">
+    <row r="45" ht="14.55" spans="1:4">
+      <c r="A45" s="30"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5">
         <v>4</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7"/>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7"/>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="7"/>
       <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7"/>
+      <c r="C49">
         <v>4</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" ht="14.55" spans="1:4">
-      <c r="A49" s="30"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+    <row r="50" ht="14.55" spans="1:4">
+      <c r="A50" s="30"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13728" windowHeight="12395" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="功能点" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">功能点!$A$1:$J$48</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -232,88 +235,64 @@
     <t>退费中</t>
   </si>
   <si>
-    <t>交付时间</t>
-  </si>
-  <si>
-    <t>费用比例</t>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>一级功能点</t>
+  </si>
+  <si>
+    <t>二级功能点</t>
+  </si>
+  <si>
+    <t>三级功能点</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>前端估时</t>
+  </si>
+  <si>
+    <t>后端估时</t>
+  </si>
+  <si>
+    <t>测试估时间</t>
+  </si>
+  <si>
+    <t>预计交付时间</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>教务</t>
+  </si>
+  <si>
+    <t>学员管理</t>
+  </si>
+  <si>
+    <t>学员信息</t>
+  </si>
+  <si>
+    <t>新增</t>
   </si>
   <si>
     <t>P0</t>
   </si>
   <si>
-    <t>4月下旬</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>5月下旬</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>6月中旬</t>
+    <t>学生编码</t>
+  </si>
+  <si>
+    <t>查询</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>家长信息</t>
   </si>
   <si>
     <t>P3</t>
-  </si>
-  <si>
-    <t>7月中旬</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>一级功能点</t>
-  </si>
-  <si>
-    <t>二级功能点</t>
-  </si>
-  <si>
-    <t>三级功能点</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>前端估时</t>
-  </si>
-  <si>
-    <t>后端估时</t>
-  </si>
-  <si>
-    <t>测试估时间</t>
-  </si>
-  <si>
-    <t>预计交付时间</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>教务</t>
-  </si>
-  <si>
-    <t>学员管理</t>
-  </si>
-  <si>
-    <t>学员信息</t>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>学生编码</t>
-  </si>
-  <si>
-    <t>查询</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>家长信息</t>
   </si>
   <si>
     <t>教师管理</t>
@@ -419,6 +398,9 @@
     <t>交费记录</t>
   </si>
   <si>
+    <t>P1</t>
+  </si>
+  <si>
     <t>退费记录</t>
   </si>
   <si>
@@ -437,6 +419,9 @@
     <t>报名统计</t>
   </si>
   <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>要有合计信息，合计维度，总收入，总课时，总科目</t>
   </si>
   <si>
@@ -483,6 +468,24 @@
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>交付时间</t>
+  </si>
+  <si>
+    <t>费用比例</t>
+  </si>
+  <si>
+    <t>4月下旬</t>
+  </si>
+  <si>
+    <t>5月下旬</t>
+  </si>
+  <si>
+    <t>6月中旬</t>
+  </si>
+  <si>
+    <t>7月中旬</t>
   </si>
   <si>
     <t>退费</t>
@@ -493,10 +496,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -530,8 +533,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,46 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,7 +578,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,22 +640,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -645,23 +655,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,7 +685,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +727,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,31 +823,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,31 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,91 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,21 +1032,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1054,6 +1042,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,8 +1099,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,42 +1124,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,7 +1137,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1143,137 +1146,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1295,9 +1298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,6 +1322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1333,7 +1336,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1677,8 +1679,8 @@
   <sheetPr/>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2007,7 +2009,7 @@
       </c>
     </row>
     <row r="32" ht="14.55" spans="1:4">
-      <c r="A32" s="31"/>
+      <c r="A32" s="7"/>
       <c r="C32" s="5">
         <v>13</v>
       </c>
@@ -2080,7 +2082,7 @@
       <c r="D38" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="31" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2209,11 +2211,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2229,1216 +2231,1224 @@
     <col min="11" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="17">
+      <c r="E1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="21"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="21"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="G4" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" hidden="1" spans="1:10">
+      <c r="A5" s="21"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" hidden="1" spans="1:10">
+      <c r="A6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="G6" s="17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="H6" s="17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" hidden="1" spans="1:10">
+      <c r="A7" s="21"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="F8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="E9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="E10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="21"/>
+      <c r="B19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" hidden="1" spans="1:10">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" hidden="1" spans="1:10">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" hidden="1" spans="1:10">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" hidden="1" spans="1:10">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="28"/>
+    </row>
+    <row r="29" hidden="1" spans="1:10">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="17">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:10">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" hidden="1" spans="1:10">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" hidden="1" spans="1:10">
+      <c r="A32" s="21"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" hidden="1" spans="1:10">
+      <c r="A33" s="21"/>
+      <c r="B33" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="F33" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="17">
         <v>0.3</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="22"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="H33" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" hidden="1" spans="1:10">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="17">
         <v>0.2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="I34" s="17"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" hidden="1" spans="1:10">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="17">
         <v>0.3</v>
       </c>
-      <c r="H9" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="H35" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" hidden="1" spans="1:10">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="17">
         <v>0.3</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H36" s="17">
         <v>0.3</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="22"/>
-      <c r="B13" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="I36" s="17"/>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" hidden="1" spans="1:10">
+      <c r="A37" s="21"/>
+      <c r="B37" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="17">
+        <v>2</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:10">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="17">
+        <v>2</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" hidden="1" spans="1:10">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="H39" s="17">
+        <v>2</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:10">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="17">
         <v>1</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="22"/>
-      <c r="B24" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="18">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="H32" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="H33" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="18">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="H35" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G36" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="22"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G37" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="H37" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="22"/>
-      <c r="B38" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H38" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H39" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G40" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="22"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="22"/>
+      <c r="H40" s="17">
+        <v>2</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" hidden="1" spans="1:10">
+      <c r="A41" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
-      <c r="D41" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="18">
+      <c r="D41" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17">
+        <v>2</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" hidden="1" spans="1:10">
+      <c r="A42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17">
+        <v>2</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" hidden="1" spans="1:10">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17">
+        <v>2</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" hidden="1" spans="1:10">
+      <c r="A44" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" hidden="1" spans="1:10">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" hidden="1" spans="1:10">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="17">
         <v>0.3</v>
       </c>
-      <c r="H41" s="18">
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" hidden="1" spans="1:10">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" hidden="1" spans="1:9">
+      <c r="A48" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="F48" s="15">
+        <f>SUM(F2:F47)</f>
+        <v>15</v>
+      </c>
+      <c r="G48" s="15">
+        <f>SUM(G2:G47)</f>
+        <v>20.4</v>
+      </c>
+      <c r="H48" s="15">
+        <f>SUM(H2:H47)</f>
+        <v>31.9</v>
+      </c>
+      <c r="I48" s="15">
+        <f>F48+G48+H48</f>
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="25">
         <v>0.3</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="22"/>
-      <c r="B42" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="18">
-        <v>2</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="18">
-        <v>2</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="H44" s="18">
-        <v>2</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1</v>
-      </c>
-      <c r="H45" s="18">
-        <v>2</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1</v>
-      </c>
-      <c r="H46" s="18">
-        <v>2</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="22"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1</v>
-      </c>
-      <c r="H47" s="18">
-        <v>2</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1</v>
-      </c>
-      <c r="H48" s="18">
-        <v>2</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1</v>
-      </c>
-      <c r="H49" s="18">
-        <v>1</v>
-      </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G50" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H50" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="18">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="25">
         <v>0.3</v>
       </c>
-      <c r="G51" s="18">
-        <v>1</v>
-      </c>
-      <c r="H51" s="18">
-        <v>1</v>
-      </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G52" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H52" s="18">
-        <v>1</v>
-      </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="F53" s="15">
-        <f>SUM(F7:F52)</f>
-        <v>15</v>
-      </c>
-      <c r="G53" s="15">
-        <f>SUM(G7:G52)</f>
-        <v>20.4</v>
-      </c>
-      <c r="H53" s="15">
-        <f>SUM(H7:H52)</f>
-        <v>31.9</v>
-      </c>
-      <c r="I53" s="15">
-        <f>F53+G53+H53</f>
-        <v>67.3</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J48">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="P0"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <mergeCells count="23">
-    <mergeCell ref="A7:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J33:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4044,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" ht="14.55" spans="1:4">
@@ -4056,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" ht="14.55" spans="1:4">

--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="150">
   <si>
     <t>枚举code</t>
   </si>
@@ -497,9 +497,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -527,7 +527,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,21 +579,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,25 +646,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,65 +663,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -685,7 +685,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +727,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,31 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,103 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,6 +1031,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1048,20 +1057,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,6 +1096,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1095,49 +1128,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,133 +1146,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1679,8 +1679,8 @@
   <sheetPr/>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2200,8 +2200,12 @@
     <row r="50" ht="14.55" spans="1:4">
       <c r="A50" s="30"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="5">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2214,8 +2218,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2809,7 +2813,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" hidden="1" spans="1:10">
+    <row r="25" spans="1:10">
       <c r="A25" s="21"/>
       <c r="B25" s="21" t="s">
         <v>117</v>
@@ -2835,7 +2839,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" hidden="1" spans="1:10">
+    <row r="26" spans="1:10">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -2857,7 +2861,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" hidden="1" spans="1:10">
+    <row r="27" spans="1:10">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -2879,7 +2883,7 @@
       <c r="I27" s="21"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" hidden="1" spans="1:10">
+    <row r="28" spans="1:10">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
@@ -2901,7 +2905,7 @@
       <c r="I28" s="23"/>
       <c r="J28" s="28"/>
     </row>
-    <row r="29" hidden="1" spans="1:10">
+    <row r="29" spans="1:10">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="18" t="s">
@@ -2927,7 +2931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:10">
+    <row r="30" spans="1:10">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -2949,7 +2953,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" hidden="1" spans="1:10">
+    <row r="31" spans="1:10">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2971,7 +2975,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" hidden="1" spans="1:10">
+    <row r="32" spans="1:10">
       <c r="A32" s="21"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -3085,7 +3089,7 @@
       <c r="I36" s="17"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" hidden="1" spans="1:10">
+    <row r="37" spans="1:10">
       <c r="A37" s="21"/>
       <c r="B37" s="18" t="s">
         <v>124</v>
@@ -3111,7 +3115,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:10">
+    <row r="38" spans="1:10">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="17"/>
@@ -3133,7 +3137,7 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" hidden="1" spans="1:10">
+    <row r="39" spans="1:10">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="24"/>
@@ -3247,7 +3251,7 @@
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" hidden="1" spans="1:10">
+    <row r="44" spans="1:10">
       <c r="A44" s="17" t="s">
         <v>136</v>
       </c>
@@ -3273,7 +3277,7 @@
       <c r="I44" s="24"/>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" hidden="1" spans="1:10">
+    <row r="45" spans="1:10">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -3295,7 +3299,7 @@
       <c r="I45" s="24"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" hidden="1" spans="1:10">
+    <row r="46" spans="1:10">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
@@ -3319,7 +3323,7 @@
       <c r="I46" s="24"/>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" hidden="1" spans="1:10">
+    <row r="47" spans="1:10">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3419,9 +3423,11 @@
   </sheetData>
   <autoFilter ref="A1:J48">
     <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="P0"/>
-      </customFilters>
+      <filters>
+        <filter val="P0"/>
+        <filter val="P1"/>
+        <filter val="P2"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -3461,7 +3467,7 @@
   <sheetPr/>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>

--- a/doc/表结构.xlsx
+++ b/doc/表结构.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
   <si>
     <t>枚举code</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>冲刺班</t>
+  </si>
+  <si>
+    <t>培优班</t>
   </si>
   <si>
     <t>courseSubject</t>
@@ -496,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -527,13 +530,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -541,76 +537,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +559,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,6 +585,52 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,10 +651,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -685,13 +688,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +742,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,19 +826,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,115 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,8 +1037,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,17 +1093,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,35 +1117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,149 +1137,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1336,6 +1339,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1677,10 +1681,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -1794,8 +1798,7 @@
       </c>
     </row>
     <row r="10" ht="14.55" spans="1:4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="31"/>
       <c r="C10" s="5">
         <v>3</v>
       </c>
@@ -1803,33 +1806,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="14.55" spans="1:4">
+      <c r="A11" s="30"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7"/>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>23</v>
@@ -1838,7 +1842,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>24</v>
@@ -1847,40 +1851,40 @@
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" ht="14.55" spans="1:4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
+    <row r="16" spans="1:4">
+      <c r="A16" s="7"/>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="14.55" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C17">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
         <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="C18">
-        <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>30</v>
@@ -1889,48 +1893,48 @@
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" ht="14.55" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+    <row r="21" ht="14.55" spans="1:4">
+      <c r="A21" s="7"/>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7"/>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>37</v>
@@ -1939,7 +1943,7 @@
     <row r="24" spans="1:4">
       <c r="A24" s="7"/>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>38</v>
@@ -1948,7 +1952,7 @@
     <row r="25" spans="1:4">
       <c r="A25" s="7"/>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>39</v>
@@ -1957,7 +1961,7 @@
     <row r="26" spans="1:4">
       <c r="A26" s="7"/>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>40</v>
@@ -1966,7 +1970,7 @@
     <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="C27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>41</v>
@@ -1975,7 +1979,7 @@
     <row r="28" spans="1:4">
       <c r="A28" s="7"/>
       <c r="C28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>42</v>
@@ -1984,7 +1988,7 @@
     <row r="29" spans="1:4">
       <c r="A29" s="7"/>
       <c r="C29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>43</v>
@@ -1993,7 +1997,7 @@
     <row r="30" spans="1:4">
       <c r="A30" s="7"/>
       <c r="C30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>44</v>
@@ -2002,187 +2006,187 @@
     <row r="31" spans="1:4">
       <c r="A31" s="7"/>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" ht="14.55" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" s="7"/>
-      <c r="C32" s="5">
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="14.55" spans="1:4">
+      <c r="A33" s="7"/>
+      <c r="C33" s="5">
         <v>13</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" ht="14.55" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="5"/>
-      <c r="C33">
+      <c r="D33" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" ht="14.55" spans="1:4">
+      <c r="A34" s="30"/>
+      <c r="B34" s="5"/>
+      <c r="C34">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="2">
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7"/>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" ht="14.55" spans="1:4">
-      <c r="A37" s="30"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5">
+    <row r="37" spans="1:4">
+      <c r="A37" s="7"/>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" ht="14.55" spans="1:4">
+      <c r="A38" s="30"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5">
         <v>3</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="2">
+      <c r="B39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="31" t="s">
+      <c r="D39" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7"/>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" ht="14.55" spans="1:4">
-      <c r="A41" s="30"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5">
+    <row r="41" spans="1:4">
+      <c r="A41" s="7"/>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" ht="14.55" spans="1:4">
+      <c r="A42" s="30"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5">
         <v>4</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="2">
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="2">
         <v>1</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7"/>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="7"/>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" ht="14.55" spans="1:4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5">
+    <row r="45" spans="1:4">
+      <c r="A45" s="7"/>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" ht="14.55" spans="1:4">
+      <c r="A46" s="30"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5">
         <v>4</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1" t="s">
+      <c r="D46" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="2">
+      <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7"/>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="7"/>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>70</v>
@@ -2191,20 +2195,29 @@
     <row r="49" spans="1:4">
       <c r="A49" s="7"/>
       <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7"/>
+      <c r="C50">
         <v>4</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" ht="14.55" spans="1:4">
+      <c r="A51" s="30"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="50" ht="14.55" spans="1:4">
-      <c r="A50" s="30"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5">
-        <v>5</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2237,51 +2250,51 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="17">
         <v>0.5</v>
@@ -2294,7 +2307,7 @@
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2302,10 +2315,10 @@
       <c r="B3" s="17"/>
       <c r="C3" s="22"/>
       <c r="D3" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="17">
         <v>0.5</v>
@@ -2324,10 +2337,10 @@
       <c r="B4" s="17"/>
       <c r="C4" s="22"/>
       <c r="D4" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="17">
         <v>0.2</v>
@@ -2345,13 +2358,13 @@
       <c r="A5" s="21"/>
       <c r="B5" s="17"/>
       <c r="C5" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" s="17">
         <v>0.5</v>
@@ -2370,10 +2383,10 @@
       <c r="B6" s="17"/>
       <c r="C6" s="22"/>
       <c r="D6" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="17">
         <v>0.2</v>
@@ -2392,10 +2405,10 @@
       <c r="B7" s="17"/>
       <c r="C7" s="22"/>
       <c r="D7" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="17">
         <v>0.3</v>
@@ -2412,16 +2425,16 @@
     <row r="8" spans="1:10">
       <c r="A8" s="21"/>
       <c r="B8" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F8" s="17">
         <v>0.5</v>
@@ -2440,10 +2453,10 @@
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" s="17">
         <v>0.5</v>
@@ -2462,10 +2475,10 @@
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="17">
         <v>0.2</v>
@@ -2484,10 +2497,10 @@
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="17">
         <v>0.3</v>
@@ -2504,16 +2517,16 @@
     <row r="12" spans="1:10">
       <c r="A12" s="21"/>
       <c r="B12" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="17">
         <v>0.5</v>
@@ -2526,7 +2539,7 @@
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2534,10 +2547,10 @@
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="17">
         <v>0.2</v>
@@ -2550,7 +2563,7 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2558,10 +2571,10 @@
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="17">
         <v>0.1</v>
@@ -2580,10 +2593,10 @@
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" s="17">
         <v>0.5</v>
@@ -2602,10 +2615,10 @@
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="17">
         <v>0.1</v>
@@ -2618,7 +2631,7 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2626,10 +2639,10 @@
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="17">
         <v>0.1</v>
@@ -2638,11 +2651,11 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2650,10 +2663,10 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="17">
         <v>0.5</v>
@@ -2666,22 +2679,22 @@
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="21"/>
       <c r="B19" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="17">
         <v>0.5</v>
@@ -2694,7 +2707,7 @@
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2702,10 +2715,10 @@
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="17">
         <v>0.3</v>
@@ -2718,7 +2731,7 @@
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2726,10 +2739,10 @@
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="17">
         <v>0.1</v>
@@ -2742,7 +2755,7 @@
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2750,13 +2763,13 @@
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="17">
         <v>0.3</v>
@@ -2772,10 +2785,10 @@
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="17">
         <v>0.3</v>
@@ -2788,7 +2801,7 @@
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2796,10 +2809,10 @@
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="17">
         <v>0.3</v>
@@ -2816,16 +2829,16 @@
     <row r="25" spans="1:10">
       <c r="A25" s="21"/>
       <c r="B25" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" s="17">
         <v>0.3</v>
@@ -2844,10 +2857,10 @@
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" s="17">
         <v>0.3</v>
@@ -2866,10 +2879,10 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="17">
         <v>0.2</v>
@@ -2888,10 +2901,10 @@
       <c r="B28" s="21"/>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" s="17">
         <v>0.1</v>
@@ -2909,13 +2922,13 @@
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="F29" s="17">
         <v>0.3</v>
@@ -2928,7 +2941,7 @@
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2936,10 +2949,10 @@
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="17">
         <v>0.3</v>
@@ -2958,10 +2971,10 @@
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F31" s="17">
         <v>0.2</v>
@@ -2980,10 +2993,10 @@
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="17">
         <v>0.1</v>
@@ -3000,16 +3013,16 @@
     <row r="33" hidden="1" spans="1:10">
       <c r="A33" s="21"/>
       <c r="B33" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" s="17">
         <v>0.5</v>
@@ -3028,10 +3041,10 @@
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F34" s="17">
         <v>0.1</v>
@@ -3050,10 +3063,10 @@
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="17">
         <v>0.2</v>
@@ -3072,10 +3085,10 @@
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F36" s="17">
         <v>0.5</v>
@@ -3092,14 +3105,14 @@
     <row r="37" spans="1:10">
       <c r="A37" s="21"/>
       <c r="B37" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F37" s="17">
         <v>0.5</v>
@@ -3112,7 +3125,7 @@
       </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3120,10 +3133,10 @@
       <c r="B38" s="21"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" s="17">
         <v>0.5</v>
@@ -3142,10 +3155,10 @@
       <c r="B39" s="21"/>
       <c r="C39" s="24"/>
       <c r="D39" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F39" s="17">
         <v>0.5</v>
@@ -3158,7 +3171,7 @@
       </c>
       <c r="I39" s="17"/>
       <c r="J39" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:10">
@@ -3166,10 +3179,10 @@
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
       <c r="D40" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="17">
         <v>0.5</v>
@@ -3185,15 +3198,15 @@
     </row>
     <row r="41" hidden="1" spans="1:10">
       <c r="A41" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="17">
         <v>0.5</v>
@@ -3212,10 +3225,10 @@
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="17">
         <v>0.5</v>
@@ -3234,10 +3247,10 @@
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="17">
         <v>0.5</v>
@@ -3253,17 +3266,17 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F44" s="17">
         <v>0.5</v>
@@ -3282,10 +3295,10 @@
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F45" s="17">
         <v>0.2</v>
@@ -3303,13 +3316,13 @@
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F46" s="17">
         <v>0.3</v>
@@ -3328,10 +3341,10 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F47" s="17">
         <v>0.2</v>
@@ -3347,7 +3360,7 @@
     </row>
     <row r="48" hidden="1" spans="1:9">
       <c r="A48" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -3370,18 +3383,18 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" s="25">
         <v>0.2</v>
@@ -3389,10 +3402,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="25">
         <v>0.2</v>
@@ -3400,10 +3413,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53" s="25">
         <v>0.3</v>
@@ -3411,10 +3424,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" s="25">
         <v>0.3</v>
@@ -3607,13 +3620,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="14.55" spans="1:4">
@@ -3621,13 +3634,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="14.55" spans="1:4">
@@ -3635,13 +3648,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="14.55" spans="1:4">
@@ -3649,13 +3662,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="14.55" spans="1:4">
@@ -3663,13 +3676,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="14.55" spans="1:4">
@@ -3677,13 +3690,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3691,13 +3704,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3705,13 +3718,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3719,13 +3732,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="14.55" spans="1:4">
@@ -3733,13 +3746,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="14.55" spans="1:4">
@@ -3747,13 +3760,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" ht="14.55" spans="1:4">
@@ -3761,13 +3774,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="14.55" spans="1:4">
@@ -3775,13 +3788,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" ht="14.55" spans="1:4">
@@ -3789,13 +3802,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" ht="14.55" spans="1:4">
@@ -3803,13 +3816,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="14.55" spans="1:4">
@@ -3817,13 +3830,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="14.55" spans="1:4">
@@ -3831,13 +3844,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="14.55" spans="1:4">
@@ -3845,13 +3858,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="14.55" spans="1:4">
@@ -3859,13 +3872,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="14.55" spans="1:4">
@@ -3873,13 +3886,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="14.55" spans="1:4">
@@ -3887,13 +3900,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="14.55" spans="1:4">
@@ -3901,13 +3914,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5">
         <v>13</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="14.55" spans="1:4">
@@ -3915,13 +3928,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="14.55" spans="1:4">
@@ -3929,13 +3942,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="14.55" spans="1:4">
@@ -3943,13 +3956,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="14.55" spans="1:4">
@@ -3957,170 +3970,170 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="5">
         <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="14.55"/>
     <row r="40" ht="14.55" spans="1:4">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" ht="14.55" spans="1:4">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="8">
         <v>2</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" ht="14.55" spans="1:4">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" s="8">
         <v>3</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" ht="14.55" spans="1:4">
       <c r="A43" s="8"/>
       <c r="B43" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="13">
         <v>4</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" ht="14.55" spans="1:4">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="14.55" spans="1:4">
       <c r="A45" s="8"/>
       <c r="B45" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="8">
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" ht="14.55" spans="1:4">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="8">
         <v>3</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="14.55" spans="1:4">
       <c r="A47" s="8"/>
       <c r="B47" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="8">
         <v>4</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" ht="14.55" spans="1:4">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" s="13">
         <v>5</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" ht="14.55" spans="1:4">
       <c r="A49" s="8"/>
       <c r="B49" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="10">
         <v>0</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" ht="14.55" spans="1:4">
       <c r="A50" s="8"/>
       <c r="B50" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" s="8">
         <v>1</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" ht="14.55" spans="1:4">
       <c r="A51" s="8"/>
       <c r="B51" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" ht="14.55" spans="1:4">
       <c r="A52" s="8"/>
       <c r="B52" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="13">
         <v>3</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
